--- a/Data_science_outputs/Graphs/Third/1/Montlhy_consumption_2.xlsx
+++ b/Data_science_outputs/Graphs/Third/1/Montlhy_consumption_2.xlsx
@@ -475,13 +475,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2716.726445466667</v>
+        <v>1616.739107633333</v>
       </c>
       <c r="C2" t="n">
         <v>1145.934473949999</v>
       </c>
       <c r="D2" t="n">
-        <v>1239.365402033333</v>
+        <v>120.6574074666667</v>
       </c>
       <c r="E2" t="n">
         <v>311.2629836</v>
@@ -498,13 +498,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2546.8461963</v>
+        <v>1507.6620386</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1153.0274232</v>
+        <v>111.7394087333333</v>
       </c>
       <c r="E3" t="n">
         <v>282.7822505666666</v>
@@ -521,13 +521,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2733.241406083333</v>
+        <v>1595.913612216666</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1236.027072083333</v>
+        <v>114.86206215</v>
       </c>
       <c r="E4" t="n">
         <v>314.3310941166667</v>
@@ -544,13 +544,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2642.571841516666</v>
+        <v>1545.856946</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1187.838368</v>
+        <v>115.4490732666667</v>
       </c>
       <c r="E5" t="n">
         <v>296.5018658833334</v>
@@ -567,13 +567,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2717.997230799999</v>
+        <v>1605.0634982</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1240.116390533333</v>
+        <v>110.6163707333333</v>
       </c>
       <c r="E6" t="n">
         <v>306.7278741333333</v>
@@ -590,13 +590,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2622.701519066666</v>
+        <v>1547.514503649999</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1197.5380756</v>
+        <v>116.4257378333333</v>
       </c>
       <c r="E7" t="n">
         <v>294.4950061166667</v>
@@ -613,13 +613,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2725.5250601</v>
+        <v>1608.401537199999</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1239.8920777</v>
+        <v>118.6550773333333</v>
       </c>
       <c r="E8" t="n">
         <v>309.5659264833334</v>
@@ -636,13 +636,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>2726.587737816666</v>
+        <v>1598.758053183333</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1235.879434933333</v>
+        <v>116.83039675</v>
       </c>
       <c r="E9" t="n">
         <v>297.0888782333333</v>
@@ -659,13 +659,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>2641.319648516666</v>
+        <v>1549.886868583333</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1197.93307795</v>
+        <v>105.2393646833333</v>
       </c>
       <c r="E10" t="n">
         <v>290.51709005</v>
@@ -682,13 +682,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>2725.976781833333</v>
+        <v>1610.85472625</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1227.072051066667</v>
+        <v>117.1247235</v>
       </c>
       <c r="E11" t="n">
         <v>301.57864965</v>
@@ -705,13 +705,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>2631.295484833333</v>
+        <v>1551.372058616666</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1202.258413916667</v>
+        <v>123.3677795833333</v>
       </c>
       <c r="E12" t="n">
         <v>292.8033013166666</v>
@@ -728,13 +728,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>2643.034288616666</v>
+        <v>1548.880400366666</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1198.797756233333</v>
+        <v>116.8627440333333</v>
       </c>
       <c r="E13" t="n">
         <v>304.0667148333333</v>
